--- a/Test case of saucelab.xlsx
+++ b/Test case of saucelab.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajput\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10c041d1c125fcad/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36895B8-CC97-4167-94EC-E839395ABADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_6977120F84F06CAB3F1FB19CE43B9BAC051E8F09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B99B6A-C153-40B2-BC36-0377E980FD81}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{32A36311-B870-47F3-83C9-1B08ED2C28BA}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="hlr" sheetId="1" r:id="rId1"/>
+    <sheet name="testcase" sheetId="2" r:id="rId2"/>
+    <sheet name="Defect Report" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="513">
   <si>
     <t>Functionality id</t>
   </si>
@@ -1335,12 +1336,453 @@
   <si>
     <t>logout happens</t>
   </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y3xHD3C07KdQsoaQeRBcbiyMuIqXUx5-/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>sagarsingh</t>
+  </si>
+  <si>
+    <t>We can add only digit to Zipcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip code not working </t>
+  </si>
+  <si>
+    <t>High Priority</t>
+  </si>
+  <si>
+    <t>High Severity</t>
+  </si>
+  <si>
+    <t>Functionality Defect, Usablity Defect</t>
+  </si>
+  <si>
+    <t>1) https://www.saucedemo.com/  2)  Press enter key 3) Click login button 4) Click on side menu 5) Click on the close  button 6) Click on filter option 7) Click on the products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check checkout button Your information with  zipcode having only digit but if I entered special character </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yuHznTH6Iez5UZB9n8DC-5IpKVdgluY2/view?usp=share_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can not add last name </t>
+  </si>
+  <si>
+    <t>if we want to write last time</t>
+  </si>
+  <si>
+    <t>Check checkout button Your information with last time</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17NPkX1fI3vpkxwzYWJOannCUQQcg8sow/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>We enter anything it go for futher process</t>
+  </si>
+  <si>
+    <t>Enter details correctly</t>
+  </si>
+  <si>
+    <t>Medium Priority</t>
+  </si>
+  <si>
+    <t>check checkout button Your information without entering details</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YAhXO5Ecm7ZPTeQBva5E10iNjFnOVi4y/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>we can add only 3 items at a time</t>
+  </si>
+  <si>
+    <t>If we add to card multiple product it can show all product in add to cart</t>
+  </si>
+  <si>
+    <t>check add to cart button by adding multiple product at a time</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oJCJKAGVjiHbMeh4wtn-4-zhdduMrT5r/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>it's does not properly showing another image</t>
+  </si>
+  <si>
+    <t>product details is open but not showing product details wright</t>
+  </si>
+  <si>
+    <t>check product details open or not</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uCUAdTyhrd9bp2jAF8m_2EcbfEMCqhA_/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>it's  does not work properly as per aspected result</t>
+  </si>
+  <si>
+    <t>To open A to Z product name first</t>
+  </si>
+  <si>
+    <t>Name (A to Z)</t>
+  </si>
+  <si>
+    <t>1) https://www.saucedemo.com/  2)  Press enter key 3) Click login button 4) Click on side menu 5) Click on the close  button 6) Click on filter option</t>
+  </si>
+  <si>
+    <t>Check filter option Name A to Z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Eu1v4lZ5_YvH0udP0nPKcuvzKN-U5yxl/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>it's show that this page could not be found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to open about website </t>
+  </si>
+  <si>
+    <t>Low Priority</t>
+  </si>
+  <si>
+    <t>1) https://www.saucedemo.com/  2)  Press enter key 3) Click login button 4) Click on side menu 5) Click on the about menu</t>
+  </si>
+  <si>
+    <t>check about menu option</t>
+  </si>
+  <si>
+    <t>It's does not work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To open the all item menu </t>
+  </si>
+  <si>
+    <t>1) https://www.saucedemo.com/  2)  Press enter key 3) Click login button 4) Click on side menu 5) Click on the all item menu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1h65HJiQRO3xySeIkZavjkvriU95Krlem/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>it show in center in menu option</t>
+  </si>
+  <si>
+    <t>it show at last in menu options not in middle it can easy for user</t>
+  </si>
+  <si>
+    <t>Low Severity</t>
+  </si>
+  <si>
+    <t>Usablity Defect</t>
+  </si>
+  <si>
+    <t>1) https://www.saucedemo.com/  2)  Press enter key 3) Click login button 4) login sucessful</t>
+  </si>
+  <si>
+    <t>check logout button it should be at last option in menu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GO5GXn19rAq17l80qawhcmuTjqVK8NR6/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>Not showing anything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it not showing  payment , and cash on delivery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functionality Defect, </t>
+  </si>
+  <si>
+    <t>1) https://www.saucedemo.com/  2)  Press enter key 3) Click login button 4) Click on side menu 5) Click on the close  button 6) Click on filter option 7) Click on the products 8) Click on add to cart button 9) Click on Contiune shopping 10)  Click on checkout button</t>
+  </si>
+  <si>
+    <t>check checkout button they not showing payment options</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1axGRQ-31TKSoNlkw5zziP6Tyi8HdGK68/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>It's does not have more details</t>
+  </si>
+  <si>
+    <t>To buy product more details should be there so user can buy product for sure if they satisfied with details</t>
+  </si>
+  <si>
+    <t>Medium Severity</t>
+  </si>
+  <si>
+    <t>check product details should be more</t>
+  </si>
+  <si>
+    <t>It's does not zoom the image</t>
+  </si>
+  <si>
+    <t>To zoom the image so we can se properly see the product</t>
+  </si>
+  <si>
+    <t>check product details and zoom option</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1y4ZFzklUYolKq5Dlhazp9TmSAWljWkQM/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>It's showing one image of product only</t>
+  </si>
+  <si>
+    <t>To show mutiple image of product</t>
+  </si>
+  <si>
+    <t>check product details and more image of product</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Emq_j6MJ5dyGeEIQ0GDGBZ5vIpRsAd7S/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>It's does not showing that</t>
+  </si>
+  <si>
+    <t>To open product details Properly</t>
+  </si>
+  <si>
+    <t>Data base Defect</t>
+  </si>
+  <si>
+    <t>check product details with options of delivery expected date</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NvK6Bjz8_NMkbE_RRHwRTbMSEsfoHqEy/view?usp=share_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's does not work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To open the Reset App Store </t>
+  </si>
+  <si>
+    <t>Functionality Defect</t>
+  </si>
+  <si>
+    <t>1) https://www.saucedemo.com/  2)  Press enter key 3) Click login button 4) Click on side menu 5) Click on the Reset app store</t>
+  </si>
+  <si>
+    <t>Check Reset App Store</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nx9TMqK0titO4L44FUq7eV2tru9RbMib/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>It's does not work and open another website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To open the all about menu </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Na6E_OTWhryxsggAUH-vZFhD8r_aQEGj/view?usp=share_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check all item menu </t>
+  </si>
+  <si>
+    <t>to display uppercase taken password in login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To display proper validation message </t>
+  </si>
+  <si>
+    <t>username: standard_user Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>1) https://www.saucedemo.com/  2)  Press enter key 3) Click login button</t>
+  </si>
+  <si>
+    <t>check login button with 1 character in uppercasein the password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not display proper validation message </t>
+  </si>
+  <si>
+    <t>username: secret_sauce Password:adf38y7878</t>
+  </si>
+  <si>
+    <t>Check login button with length of password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: Password:adf3 </t>
+  </si>
+  <si>
+    <t>check  login button start with digit and charater in password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: Password: 2222 </t>
+  </si>
+  <si>
+    <t>check  login button start with only digit in password</t>
+  </si>
+  <si>
+    <t>username: Password: %$&amp;*</t>
+  </si>
+  <si>
+    <t>check  login button with only white space password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: %&amp;&amp;&amp;7 Password: </t>
+  </si>
+  <si>
+    <t>check  login button with only white space username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username:   secret_sauce Password: </t>
+  </si>
+  <si>
+    <t>check  login button start with space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: secret_sauce Password: </t>
+  </si>
+  <si>
+    <t>check  login button start only lower case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: SECRET_SAUCE Password: </t>
+  </si>
+  <si>
+    <t>check  login button start only upper case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: 2233 Password: </t>
+  </si>
+  <si>
+    <t>check  login button start with only digit in username</t>
+  </si>
+  <si>
+    <t>it's show username and password do not match only</t>
+  </si>
+  <si>
+    <t>To displayo option of forgot password</t>
+  </si>
+  <si>
+    <t>username: secret_sauce Password: egfyur</t>
+  </si>
+  <si>
+    <t>check login button if password is incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: 2tf233 Password: </t>
+  </si>
+  <si>
+    <t>check  login button start with digit and charater in username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usename: ijejfnhjfjrhgrejkghrughdukhege password:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check  login button with length in username </t>
+  </si>
+  <si>
+    <t>username @  Password @</t>
+  </si>
+  <si>
+    <t>Check  login button with specials charater</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KA2FYx2Sj-Z5G3oYQo162eAIaMgI7jGO/view?usp=share_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not display proper validation message and it can not see properly message </t>
+  </si>
+  <si>
+    <t>username: bjhuy     password: njkhg</t>
+  </si>
+  <si>
+    <t>Check login button with wrong details</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16HMgaJcX5O8r3gM03t9nk6x5V22u2IQK/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>username:     password: secret_sauce</t>
+  </si>
+  <si>
+    <t>Check Login button with username is null but password is entered</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DIXw_l0fV5VEco1gKziQ6FXLya2Q7cv7/view?usp=share_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: secret_user      password:  </t>
+  </si>
+  <si>
+    <t>Check Login button with username is entered but password is null</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DRlnAlqqqQ0IwgXxLjkt6kXQnHI3w2j7/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>Not display proper validation message it's show username is required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username:      password:  </t>
+  </si>
+  <si>
+    <t>Check Login button with blank/ null value</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15cAjp0bc7MqaIIGM5xsgpARMwbPN_VhZ/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>As per expected result but not to display proper user details after login</t>
+  </si>
+  <si>
+    <t>To open the user dashboard with proper deatails</t>
+  </si>
+  <si>
+    <t>username: standard_user password: secert_user</t>
+  </si>
+  <si>
+    <t>Check Login button</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Defect Priority</t>
+  </si>
+  <si>
+    <t>Defect Severity</t>
+  </si>
+  <si>
+    <t>Defect Types</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reproduced Steps</t>
+  </si>
+  <si>
+    <t>Defect Summary</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Attachement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1389,6 +1831,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1425,10 +1897,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1461,8 +1934,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1779,22 +2269,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387EB4A6-7652-47FB-BCD5-6343BDE64902}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.41796875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.15625" customWidth="1"/>
+    <col min="4" max="4" width="47.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +2296,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1817,7 +2307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1829,7 +2319,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1840,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>100</v>
       </c>
@@ -1852,7 +2342,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>200</v>
       </c>
@@ -1864,7 +2354,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>300</v>
       </c>
@@ -1875,7 +2365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>301</v>
       </c>
@@ -1886,7 +2376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>400</v>
       </c>
@@ -1897,7 +2387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>401</v>
       </c>
@@ -1908,7 +2398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>402</v>
       </c>
@@ -1920,7 +2410,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>403</v>
       </c>
@@ -1931,7 +2421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>404</v>
       </c>
@@ -1942,7 +2432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>405</v>
       </c>
@@ -1953,7 +2443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>406</v>
       </c>
@@ -1964,7 +2454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>407</v>
       </c>
@@ -1975,7 +2465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>408</v>
       </c>
@@ -1986,7 +2476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>409</v>
       </c>
@@ -1997,7 +2487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>410</v>
       </c>
@@ -2008,7 +2498,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>411</v>
       </c>
@@ -2019,7 +2509,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>412</v>
       </c>
@@ -2030,7 +2520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>413</v>
       </c>
@@ -2041,7 +2531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>414</v>
       </c>
@@ -2052,7 +2542,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>415</v>
       </c>
@@ -2063,7 +2553,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>416</v>
       </c>
@@ -2074,7 +2564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
         <v>500</v>
       </c>
@@ -2085,7 +2575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
         <v>501</v>
       </c>
@@ -2096,7 +2586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4">
         <v>600</v>
       </c>
@@ -2107,7 +2597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4">
         <v>700</v>
       </c>
@@ -2118,7 +2608,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4">
         <v>701</v>
       </c>
@@ -2129,7 +2619,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4">
         <v>702</v>
       </c>
@@ -2140,7 +2630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5">
         <v>800</v>
       </c>
@@ -2152,7 +2642,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5">
         <v>801</v>
       </c>
@@ -2163,7 +2653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5">
         <v>802</v>
       </c>
@@ -2175,7 +2665,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4">
         <v>803</v>
       </c>
@@ -2186,7 +2676,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6">
         <v>900</v>
       </c>
@@ -2197,7 +2687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5">
         <v>901</v>
       </c>
@@ -2208,7 +2698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6">
         <v>902</v>
       </c>
@@ -2219,7 +2709,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>903</v>
       </c>
@@ -2230,7 +2720,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
         <v>904</v>
       </c>
@@ -2241,7 +2731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>905</v>
       </c>
@@ -2252,7 +2742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
         <v>906</v>
       </c>
@@ -2263,7 +2753,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>907</v>
       </c>
@@ -2274,7 +2764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
         <v>908</v>
       </c>
@@ -2286,7 +2776,7 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
         <v>909</v>
       </c>
@@ -2298,7 +2788,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
         <v>910</v>
       </c>
@@ -2309,7 +2799,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>910</v>
       </c>
@@ -2320,7 +2810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>911</v>
       </c>
@@ -2331,7 +2821,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3">
         <v>912</v>
       </c>
@@ -2342,7 +2832,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>1000</v>
       </c>
@@ -2353,7 +2843,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>1100</v>
       </c>
@@ -2364,7 +2854,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
         <v>1200</v>
       </c>
@@ -2376,7 +2866,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>1201</v>
       </c>
@@ -2387,7 +2877,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3">
         <v>1202</v>
       </c>
@@ -2398,7 +2888,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3">
         <v>1203</v>
       </c>
@@ -2410,7 +2900,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
         <v>1204</v>
       </c>
@@ -2421,7 +2911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6">
         <v>1205</v>
       </c>
@@ -2432,7 +2922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6">
         <v>1300</v>
       </c>
@@ -2443,7 +2933,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6">
         <v>1301</v>
       </c>
@@ -2454,7 +2944,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
         <v>1302</v>
       </c>
@@ -2466,7 +2956,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
         <v>1303</v>
       </c>
@@ -2478,7 +2968,7 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
         <v>1400</v>
       </c>
@@ -2489,7 +2979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6">
         <v>1401</v>
       </c>
@@ -2500,7 +2990,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4">
         <v>1402</v>
       </c>
@@ -2511,7 +3001,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4">
         <v>1403</v>
       </c>
@@ -2522,7 +3012,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
         <v>1404</v>
       </c>
@@ -2533,7 +3023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
         <v>1405</v>
       </c>
@@ -2544,7 +3034,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>1406</v>
       </c>
@@ -2555,7 +3045,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>1407</v>
       </c>
@@ -2566,7 +3056,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>1408</v>
       </c>
@@ -2577,7 +3067,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>1409</v>
       </c>
@@ -2588,7 +3078,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>1410</v>
       </c>
@@ -2599,7 +3089,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>1500</v>
       </c>
@@ -2610,7 +3100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>1600</v>
       </c>
@@ -2628,27 +3118,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124E8968-D6F8-4230-B573-85C74972132E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C136" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.578125" customWidth="1"/>
+    <col min="3" max="3" width="18.26171875" customWidth="1"/>
+    <col min="4" max="4" width="26.83984375" customWidth="1"/>
+    <col min="5" max="5" width="17.68359375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.15625" customWidth="1"/>
+    <col min="8" max="8" width="16.68359375" customWidth="1"/>
+    <col min="9" max="9" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="10" t="s">
         <v>132</v>
       </c>
@@ -2678,7 +3168,7 @@
       </c>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2707,7 +3197,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2736,7 +3226,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2765,7 +3255,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2794,7 +3284,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2823,7 +3313,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2852,7 +3342,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2881,7 +3371,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2910,7 +3400,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2939,7 +3429,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2968,7 +3458,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2997,7 +3487,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3026,7 +3516,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3055,7 +3545,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3084,7 +3574,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3113,7 +3603,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3142,7 +3632,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3171,7 +3661,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -3200,7 +3690,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3229,7 +3719,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3258,7 +3748,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -3287,7 +3777,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -3316,7 +3806,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3345,7 +3835,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3374,7 +3864,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3403,7 +3893,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3432,7 +3922,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3461,7 +3951,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3490,7 +3980,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3519,7 +4009,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3548,7 +4038,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -3577,7 +4067,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -3606,7 +4096,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3635,7 +4125,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3664,7 +4154,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3694,7 +4184,7 @@
       </c>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3724,7 +4214,7 @@
       </c>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3754,7 +4244,7 @@
       </c>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3784,7 +4274,7 @@
       </c>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3814,7 +4304,7 @@
       </c>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3844,7 +4334,7 @@
       </c>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11">
         <v>42</v>
       </c>
@@ -3874,7 +4364,7 @@
       </c>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11">
         <v>43</v>
       </c>
@@ -3904,7 +4394,7 @@
       </c>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11">
         <v>44</v>
       </c>
@@ -3934,7 +4424,7 @@
       </c>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11">
         <v>45</v>
       </c>
@@ -3964,7 +4454,7 @@
       </c>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11">
         <v>46</v>
       </c>
@@ -3994,7 +4484,7 @@
       </c>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11">
         <v>47</v>
       </c>
@@ -4024,7 +4514,7 @@
       </c>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="11">
         <v>48</v>
       </c>
@@ -4054,7 +4544,7 @@
       </c>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11">
         <v>49</v>
       </c>
@@ -4084,7 +4574,7 @@
       </c>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="11">
         <v>50</v>
       </c>
@@ -4114,7 +4604,7 @@
       </c>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11">
         <v>51</v>
       </c>
@@ -4144,7 +4634,7 @@
       </c>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11">
         <v>52</v>
       </c>
@@ -4174,7 +4664,7 @@
       </c>
       <c r="J52" s="15"/>
     </row>
-    <row r="53" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11">
         <v>53</v>
       </c>
@@ -4204,7 +4694,7 @@
       </c>
       <c r="J53" s="15"/>
     </row>
-    <row r="54" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="11">
         <v>54</v>
       </c>
@@ -4234,7 +4724,7 @@
       </c>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11">
         <v>55</v>
       </c>
@@ -4264,7 +4754,7 @@
       </c>
       <c r="J55" s="15"/>
     </row>
-    <row r="56" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11">
         <v>56</v>
       </c>
@@ -4294,7 +4784,7 @@
       </c>
       <c r="J56" s="15"/>
     </row>
-    <row r="57" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11">
         <v>57</v>
       </c>
@@ -4324,7 +4814,7 @@
       </c>
       <c r="J57" s="15"/>
     </row>
-    <row r="58" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="11">
         <v>58</v>
       </c>
@@ -4354,7 +4844,7 @@
       </c>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11">
         <v>59</v>
       </c>
@@ -4384,7 +4874,7 @@
       </c>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="11">
         <v>60</v>
       </c>
@@ -4414,7 +4904,7 @@
       </c>
       <c r="J60" s="15"/>
     </row>
-    <row r="61" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11">
         <v>61</v>
       </c>
@@ -4444,7 +4934,7 @@
       </c>
       <c r="J61" s="15"/>
     </row>
-    <row r="62" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="11">
         <v>62</v>
       </c>
@@ -4474,7 +4964,7 @@
       </c>
       <c r="J62" s="15"/>
     </row>
-    <row r="63" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="11">
         <v>63</v>
       </c>
@@ -4504,7 +4994,7 @@
       </c>
       <c r="J63" s="15"/>
     </row>
-    <row r="64" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="11">
         <v>64</v>
       </c>
@@ -4534,7 +5024,7 @@
       </c>
       <c r="J64" s="15"/>
     </row>
-    <row r="65" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="11">
         <v>65</v>
       </c>
@@ -4564,7 +5054,7 @@
       </c>
       <c r="J65" s="15"/>
     </row>
-    <row r="66" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11">
         <v>66</v>
       </c>
@@ -4594,7 +5084,7 @@
       </c>
       <c r="J66" s="15"/>
     </row>
-    <row r="67" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="11">
         <v>67</v>
       </c>
@@ -4624,7 +5114,7 @@
       </c>
       <c r="J67" s="15"/>
     </row>
-    <row r="68" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="11">
         <v>68</v>
       </c>
@@ -4654,7 +5144,7 @@
       </c>
       <c r="J68" s="15"/>
     </row>
-    <row r="69" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="11">
         <v>69</v>
       </c>
@@ -4684,7 +5174,7 @@
       </c>
       <c r="J69" s="15"/>
     </row>
-    <row r="70" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="11">
         <v>70</v>
       </c>
@@ -4714,7 +5204,7 @@
       </c>
       <c r="J70" s="15"/>
     </row>
-    <row r="71" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="11">
         <v>71</v>
       </c>
@@ -4744,7 +5234,7 @@
       </c>
       <c r="J71" s="15"/>
     </row>
-    <row r="72" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="11">
         <v>72</v>
       </c>
@@ -4774,7 +5264,7 @@
       </c>
       <c r="J72" s="15"/>
     </row>
-    <row r="73" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11">
         <v>73</v>
       </c>
@@ -4804,7 +5294,7 @@
       </c>
       <c r="J73" s="15"/>
     </row>
-    <row r="74" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="11">
         <v>74</v>
       </c>
@@ -4834,7 +5324,7 @@
       </c>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11">
         <v>75</v>
       </c>
@@ -4864,7 +5354,7 @@
       </c>
       <c r="J75" s="15"/>
     </row>
-    <row r="76" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="11">
         <v>76</v>
       </c>
@@ -4894,7 +5384,7 @@
       </c>
       <c r="J76" s="15"/>
     </row>
-    <row r="77" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="11">
         <v>77</v>
       </c>
@@ -4924,7 +5414,7 @@
       </c>
       <c r="J77" s="15"/>
     </row>
-    <row r="78" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="11">
         <v>78</v>
       </c>
@@ -4954,7 +5444,7 @@
       </c>
       <c r="J78" s="15"/>
     </row>
-    <row r="79" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="11">
         <v>79</v>
       </c>
@@ -4984,7 +5474,7 @@
       </c>
       <c r="J79" s="15"/>
     </row>
-    <row r="80" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="11">
         <v>80</v>
       </c>
@@ -5014,7 +5504,7 @@
       </c>
       <c r="J80" s="15"/>
     </row>
-    <row r="81" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="11">
         <v>81</v>
       </c>
@@ -5044,7 +5534,7 @@
       </c>
       <c r="J81" s="15"/>
     </row>
-    <row r="82" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11">
         <v>82</v>
       </c>
@@ -5074,7 +5564,7 @@
       </c>
       <c r="J82" s="15"/>
     </row>
-    <row r="83" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11">
         <v>83</v>
       </c>
@@ -5104,7 +5594,7 @@
       </c>
       <c r="J83" s="15"/>
     </row>
-    <row r="84" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11">
         <v>84</v>
       </c>
@@ -5134,7 +5624,7 @@
       </c>
       <c r="J84" s="15"/>
     </row>
-    <row r="85" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11">
         <v>85</v>
       </c>
@@ -5164,7 +5654,7 @@
       </c>
       <c r="J85" s="15"/>
     </row>
-    <row r="86" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11">
         <v>86</v>
       </c>
@@ -5194,7 +5684,7 @@
       </c>
       <c r="J86" s="15"/>
     </row>
-    <row r="87" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11">
         <v>87</v>
       </c>
@@ -5224,7 +5714,7 @@
       </c>
       <c r="J87" s="15"/>
     </row>
-    <row r="88" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11">
         <v>88</v>
       </c>
@@ -5254,7 +5744,7 @@
       </c>
       <c r="J88" s="15"/>
     </row>
-    <row r="89" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11">
         <v>89</v>
       </c>
@@ -5284,7 +5774,7 @@
       </c>
       <c r="J89" s="15"/>
     </row>
-    <row r="90" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11">
         <v>90</v>
       </c>
@@ -5314,7 +5804,7 @@
       </c>
       <c r="J90" s="15"/>
     </row>
-    <row r="91" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11">
         <v>91</v>
       </c>
@@ -5344,7 +5834,7 @@
       </c>
       <c r="J91" s="15"/>
     </row>
-    <row r="92" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11">
         <v>92</v>
       </c>
@@ -5374,7 +5864,7 @@
       </c>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11">
         <v>93</v>
       </c>
@@ -5404,7 +5894,7 @@
       </c>
       <c r="J93" s="15"/>
     </row>
-    <row r="94" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="11">
         <v>94</v>
       </c>
@@ -5434,7 +5924,7 @@
       </c>
       <c r="J94" s="15"/>
     </row>
-    <row r="95" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="11">
         <v>95</v>
       </c>
@@ -5464,7 +5954,7 @@
       </c>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="11">
         <v>96</v>
       </c>
@@ -5494,7 +5984,7 @@
       </c>
       <c r="J96" s="15"/>
     </row>
-    <row r="97" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="11">
         <v>97</v>
       </c>
@@ -5524,7 +6014,7 @@
       </c>
       <c r="J97" s="15"/>
     </row>
-    <row r="98" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="11">
         <v>98</v>
       </c>
@@ -5554,7 +6044,7 @@
       </c>
       <c r="J98" s="15"/>
     </row>
-    <row r="99" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11">
         <v>99</v>
       </c>
@@ -5584,7 +6074,7 @@
       </c>
       <c r="J99" s="15"/>
     </row>
-    <row r="100" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="11">
         <v>100</v>
       </c>
@@ -5614,7 +6104,7 @@
       </c>
       <c r="J100" s="15"/>
     </row>
-    <row r="101" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="11">
         <v>101</v>
       </c>
@@ -5644,7 +6134,7 @@
       </c>
       <c r="J101" s="15"/>
     </row>
-    <row r="102" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="11">
         <v>102</v>
       </c>
@@ -5674,7 +6164,7 @@
       </c>
       <c r="J102" s="15"/>
     </row>
-    <row r="103" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="11">
         <v>103</v>
       </c>
@@ -5704,7 +6194,7 @@
       </c>
       <c r="J103" s="15"/>
     </row>
-    <row r="104" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="11">
         <v>104</v>
       </c>
@@ -5734,7 +6224,7 @@
       </c>
       <c r="J104" s="15"/>
     </row>
-    <row r="105" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="11">
         <v>105</v>
       </c>
@@ -5764,7 +6254,7 @@
       </c>
       <c r="J105" s="15"/>
     </row>
-    <row r="106" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="11">
         <v>106</v>
       </c>
@@ -5794,7 +6284,7 @@
       </c>
       <c r="J106" s="15"/>
     </row>
-    <row r="107" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="11">
         <v>107</v>
       </c>
@@ -5824,7 +6314,7 @@
       </c>
       <c r="J107" s="15"/>
     </row>
-    <row r="108" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="11">
         <v>108</v>
       </c>
@@ -5854,7 +6344,7 @@
       </c>
       <c r="J108" s="15"/>
     </row>
-    <row r="109" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="11">
         <v>109</v>
       </c>
@@ -5884,7 +6374,7 @@
       </c>
       <c r="J109" s="15"/>
     </row>
-    <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="11">
         <v>110</v>
       </c>
@@ -5914,7 +6404,7 @@
       </c>
       <c r="J110" s="15"/>
     </row>
-    <row r="111" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="11">
         <v>111</v>
       </c>
@@ -5943,7 +6433,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="11">
         <v>112</v>
       </c>
@@ -5972,7 +6462,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="11">
         <v>113</v>
       </c>
@@ -6001,7 +6491,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="11">
         <v>114</v>
       </c>
@@ -6030,7 +6520,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="11">
         <v>115</v>
       </c>
@@ -6059,7 +6549,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="11">
         <v>116</v>
       </c>
@@ -6088,7 +6578,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="11">
         <v>117</v>
       </c>
@@ -6117,7 +6607,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="11">
         <v>118</v>
       </c>
@@ -6146,7 +6636,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="11">
         <v>119</v>
       </c>
@@ -6175,7 +6665,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="11">
         <v>120</v>
       </c>
@@ -6204,7 +6694,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="11">
         <v>121</v>
       </c>
@@ -6233,7 +6723,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="11">
         <v>122</v>
       </c>
@@ -6262,7 +6752,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="11">
         <v>123</v>
       </c>
@@ -6291,7 +6781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="11">
         <v>124</v>
       </c>
@@ -6320,7 +6810,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="11"/>
       <c r="B125" s="11">
         <v>1902</v>
@@ -6347,7 +6837,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="11"/>
       <c r="B126" s="11">
         <v>1903</v>
@@ -6374,7 +6864,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="11"/>
       <c r="B127" s="11">
         <v>1904</v>
@@ -6401,7 +6891,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="11"/>
       <c r="B128" s="11">
         <v>1905</v>
@@ -6428,7 +6918,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="11"/>
       <c r="B129" s="11">
         <v>1906</v>
@@ -6455,7 +6945,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="11"/>
       <c r="B130" s="11">
         <v>1907</v>
@@ -6482,7 +6972,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="11"/>
       <c r="B131" s="11">
         <v>1908</v>
@@ -6509,7 +6999,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="11"/>
       <c r="B132" s="11">
         <v>1909</v>
@@ -6536,7 +7026,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="11"/>
       <c r="B133" s="17">
         <v>1910</v>
@@ -6563,7 +7053,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="11"/>
       <c r="B134" s="11">
         <v>1911</v>
@@ -6590,7 +7080,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="11"/>
       <c r="B135" s="17">
         <v>2000</v>
@@ -6617,7 +7107,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="11"/>
       <c r="B136" s="11">
         <v>2100</v>
@@ -6644,7 +7134,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="11"/>
       <c r="B137" s="11">
         <v>2200</v>
@@ -6671,7 +7161,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -6682,7 +7172,7 @@
       <c r="H138" s="11"/>
       <c r="I138" s="11"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -6693,7 +7183,7 @@
       <c r="H139" s="11"/>
       <c r="I139" s="11"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -6704,7 +7194,7 @@
       <c r="H140" s="11"/>
       <c r="I140" s="11"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -6715,7 +7205,7 @@
       <c r="H141" s="11"/>
       <c r="I141" s="11"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -6726,7 +7216,7 @@
       <c r="H142" s="11"/>
       <c r="I142" s="11"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -6737,7 +7227,7 @@
       <c r="H143" s="11"/>
       <c r="I143" s="11"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -6748,7 +7238,7 @@
       <c r="H144" s="11"/>
       <c r="I144" s="11"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -6759,7 +7249,7 @@
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -6770,7 +7260,7 @@
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -6781,7 +7271,7 @@
       <c r="H147" s="11"/>
       <c r="I147" s="11"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -6792,7 +7282,7 @@
       <c r="H148" s="11"/>
       <c r="I148" s="11"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -6803,7 +7293,7 @@
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -6814,7 +7304,7 @@
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -6825,7 +7315,7 @@
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -6836,7 +7326,7 @@
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -6847,7 +7337,7 @@
       <c r="H153" s="11"/>
       <c r="I153" s="11"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -6858,7 +7348,7 @@
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -6869,7 +7359,7 @@
       <c r="H155" s="11"/>
       <c r="I155" s="11"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -6880,7 +7370,7 @@
       <c r="H156" s="11"/>
       <c r="I156" s="11"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -6891,7 +7381,7 @@
       <c r="H157" s="11"/>
       <c r="I157" s="11"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -6902,7 +7392,7 @@
       <c r="H158" s="11"/>
       <c r="I158" s="11"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -6913,7 +7403,7 @@
       <c r="H159" s="11"/>
       <c r="I159" s="11"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -6924,7 +7414,7 @@
       <c r="H160" s="11"/>
       <c r="I160" s="11"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -6935,7 +7425,7 @@
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -6946,7 +7436,7 @@
       <c r="H162" s="11"/>
       <c r="I162" s="11"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -6957,7 +7447,7 @@
       <c r="H163" s="11"/>
       <c r="I163" s="11"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -6968,7 +7458,7 @@
       <c r="H164" s="11"/>
       <c r="I164" s="11"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -6979,7 +7469,7 @@
       <c r="H165" s="11"/>
       <c r="I165" s="11"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -6990,7 +7480,7 @@
       <c r="H166" s="11"/>
       <c r="I166" s="11"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -7001,7 +7491,7 @@
       <c r="H167" s="11"/>
       <c r="I167" s="11"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -7012,7 +7502,7 @@
       <c r="H168" s="11"/>
       <c r="I168" s="11"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -7023,7 +7513,7 @@
       <c r="H169" s="11"/>
       <c r="I169" s="11"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -7034,7 +7524,7 @@
       <c r="H170" s="11"/>
       <c r="I170" s="11"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -7045,7 +7535,7 @@
       <c r="H171" s="11"/>
       <c r="I171" s="11"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -7056,7 +7546,7 @@
       <c r="H172" s="11"/>
       <c r="I172" s="11"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -7067,7 +7557,7 @@
       <c r="H173" s="11"/>
       <c r="I173" s="11"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -7078,7 +7568,7 @@
       <c r="H174" s="11"/>
       <c r="I174" s="11"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -7089,7 +7579,7 @@
       <c r="H175" s="11"/>
       <c r="I175" s="11"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -7100,7 +7590,7 @@
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -7111,7 +7601,7 @@
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -7122,7 +7612,7 @@
       <c r="H178" s="11"/>
       <c r="I178" s="11"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -7133,7 +7623,7 @@
       <c r="H179" s="11"/>
       <c r="I179" s="11"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -7144,7 +7634,7 @@
       <c r="H180" s="11"/>
       <c r="I180" s="11"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -7155,7 +7645,7 @@
       <c r="H181" s="11"/>
       <c r="I181" s="11"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -7166,7 +7656,7 @@
       <c r="H182" s="11"/>
       <c r="I182" s="11"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -7177,7 +7667,7 @@
       <c r="H183" s="11"/>
       <c r="I183" s="11"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -7188,7 +7678,7 @@
       <c r="H184" s="11"/>
       <c r="I184" s="11"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -7199,7 +7689,7 @@
       <c r="H185" s="11"/>
       <c r="I185" s="11"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -7210,7 +7700,7 @@
       <c r="H186" s="11"/>
       <c r="I186" s="11"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -7221,7 +7711,7 @@
       <c r="H187" s="11"/>
       <c r="I187" s="11"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -7232,7 +7722,7 @@
       <c r="H188" s="11"/>
       <c r="I188" s="11"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -7243,7 +7733,7 @@
       <c r="H189" s="11"/>
       <c r="I189" s="11"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -7254,7 +7744,7 @@
       <c r="H190" s="11"/>
       <c r="I190" s="11"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -7265,7 +7755,7 @@
       <c r="H191" s="11"/>
       <c r="I191" s="11"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -7276,7 +7766,7 @@
       <c r="H192" s="11"/>
       <c r="I192" s="11"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -7287,7 +7777,7 @@
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -7298,7 +7788,7 @@
       <c r="H194" s="11"/>
       <c r="I194" s="11"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -7309,7 +7799,7 @@
       <c r="H195" s="11"/>
       <c r="I195" s="11"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -7320,7 +7810,7 @@
       <c r="H196" s="11"/>
       <c r="I196" s="11"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -7331,7 +7821,7 @@
       <c r="H197" s="11"/>
       <c r="I197" s="11"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -7342,7 +7832,7 @@
       <c r="H198" s="11"/>
       <c r="I198" s="11"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -7353,7 +7843,7 @@
       <c r="H199" s="11"/>
       <c r="I199" s="11"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -7364,7 +7854,7 @@
       <c r="H200" s="11"/>
       <c r="I200" s="11"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -7375,7 +7865,7 @@
       <c r="H201" s="11"/>
       <c r="I201" s="11"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -7386,7 +7876,7 @@
       <c r="H202" s="11"/>
       <c r="I202" s="11"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -7397,7 +7887,7 @@
       <c r="H203" s="11"/>
       <c r="I203" s="11"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -7408,7 +7898,7 @@
       <c r="H204" s="11"/>
       <c r="I204" s="11"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -7419,7 +7909,7 @@
       <c r="H205" s="11"/>
       <c r="I205" s="11"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -7430,7 +7920,7 @@
       <c r="H206" s="11"/>
       <c r="I206" s="11"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -7441,7 +7931,7 @@
       <c r="H207" s="11"/>
       <c r="I207" s="11"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -7452,7 +7942,7 @@
       <c r="H208" s="11"/>
       <c r="I208" s="11"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -7463,7 +7953,7 @@
       <c r="H209" s="11"/>
       <c r="I209" s="11"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -7474,7 +7964,7 @@
       <c r="H210" s="11"/>
       <c r="I210" s="11"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -7485,7 +7975,7 @@
       <c r="H211" s="11"/>
       <c r="I211" s="11"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -7496,7 +7986,7 @@
       <c r="H212" s="11"/>
       <c r="I212" s="11"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -7507,7 +7997,7 @@
       <c r="H213" s="11"/>
       <c r="I213" s="11"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -7518,7 +8008,7 @@
       <c r="H214" s="11"/>
       <c r="I214" s="11"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -7529,7 +8019,7 @@
       <c r="H215" s="11"/>
       <c r="I215" s="11"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -7540,7 +8030,7 @@
       <c r="H216" s="11"/>
       <c r="I216" s="11"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -7551,7 +8041,7 @@
       <c r="H217" s="11"/>
       <c r="I217" s="11"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -7562,7 +8052,7 @@
       <c r="H218" s="11"/>
       <c r="I218" s="11"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -7573,7 +8063,7 @@
       <c r="H219" s="11"/>
       <c r="I219" s="11"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -7584,7 +8074,7 @@
       <c r="H220" s="11"/>
       <c r="I220" s="11"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -7595,7 +8085,7 @@
       <c r="H221" s="11"/>
       <c r="I221" s="11"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -7606,7 +8096,7 @@
       <c r="H222" s="11"/>
       <c r="I222" s="11"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -7617,7 +8107,7 @@
       <c r="H223" s="11"/>
       <c r="I223" s="11"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
@@ -7628,7 +8118,7 @@
       <c r="H224" s="11"/>
       <c r="I224" s="11"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
@@ -7639,7 +8129,7 @@
       <c r="H225" s="11"/>
       <c r="I225" s="11"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
@@ -7650,7 +8140,7 @@
       <c r="H226" s="11"/>
       <c r="I226" s="11"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
@@ -7661,7 +8151,7 @@
       <c r="H227" s="11"/>
       <c r="I227" s="11"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
@@ -7672,7 +8162,7 @@
       <c r="H228" s="11"/>
       <c r="I228" s="11"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
@@ -7683,7 +8173,7 @@
       <c r="H229" s="11"/>
       <c r="I229" s="11"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
@@ -7694,7 +8184,7 @@
       <c r="H230" s="11"/>
       <c r="I230" s="11"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -7705,7 +8195,7 @@
       <c r="H231" s="11"/>
       <c r="I231" s="11"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -7716,7 +8206,7 @@
       <c r="H232" s="11"/>
       <c r="I232" s="11"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
@@ -7727,7 +8217,7 @@
       <c r="H233" s="11"/>
       <c r="I233" s="11"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="11"/>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
@@ -7738,7 +8228,7 @@
       <c r="H234" s="11"/>
       <c r="I234" s="11"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="11"/>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -7749,7 +8239,7 @@
       <c r="H235" s="11"/>
       <c r="I235" s="11"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
@@ -7760,7 +8250,7 @@
       <c r="H236" s="11"/>
       <c r="I236" s="11"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -7771,7 +8261,7 @@
       <c r="H237" s="11"/>
       <c r="I237" s="11"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="11"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -7782,7 +8272,7 @@
       <c r="H238" s="11"/>
       <c r="I238" s="11"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="11"/>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
@@ -7793,7 +8283,7 @@
       <c r="H239" s="11"/>
       <c r="I239" s="11"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -7804,7 +8294,7 @@
       <c r="H240" s="11"/>
       <c r="I240" s="11"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
@@ -7815,7 +8305,7 @@
       <c r="H241" s="11"/>
       <c r="I241" s="11"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="11"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
@@ -7823,7 +8313,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="11"/>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
@@ -7831,7 +8321,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="11"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
@@ -7839,7 +8329,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="11"/>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
@@ -7847,7 +8337,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="11"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
@@ -7855,7 +8345,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="11"/>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
@@ -7863,7 +8353,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="11"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
@@ -7871,7 +8361,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="11"/>
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
@@ -7879,7 +8369,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="11"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
@@ -7887,7 +8377,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="11"/>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
@@ -7895,7 +8385,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="11"/>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
@@ -7903,7 +8393,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="11"/>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
@@ -7911,7 +8401,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="11"/>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
@@ -7919,7 +8409,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="11"/>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
@@ -7927,7 +8417,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="11"/>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
@@ -7935,7 +8425,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="11"/>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
@@ -7943,7 +8433,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="11"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
@@ -7951,7 +8441,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="11"/>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
@@ -7959,7 +8449,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="11"/>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
@@ -7967,7 +8457,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="11"/>
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
@@ -7975,7 +8465,7 @@
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="11"/>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
@@ -7983,7 +8473,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="11"/>
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
@@ -7991,7 +8481,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="11"/>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
@@ -7999,7 +8489,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="11"/>
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
@@ -8007,7 +8497,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="11"/>
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
@@ -8015,7 +8505,7 @@
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="11"/>
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
@@ -8023,7 +8513,7 @@
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="11"/>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
@@ -8031,7 +8521,7 @@
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="11"/>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
@@ -8039,7 +8529,7 @@
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="11"/>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
@@ -8047,7 +8537,7 @@
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="11"/>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
@@ -8055,7 +8545,7 @@
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="11"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
@@ -8063,7 +8553,7 @@
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="11"/>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
@@ -8071,7 +8561,7 @@
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="11"/>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
@@ -8079,7 +8569,7 @@
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="11"/>
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
@@ -8087,7 +8577,7 @@
       <c r="E275" s="11"/>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="11"/>
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
@@ -8095,7 +8585,7 @@
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="11"/>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
@@ -8103,7 +8593,7 @@
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="11"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -8111,7 +8601,7 @@
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="11"/>
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
@@ -8119,7 +8609,7 @@
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
@@ -8127,7 +8617,7 @@
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="11"/>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
@@ -8135,7 +8625,7 @@
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="11"/>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
@@ -8143,7 +8633,7 @@
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="11"/>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
@@ -8151,7 +8641,7 @@
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="11"/>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
@@ -8159,7 +8649,7 @@
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="11"/>
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
@@ -8167,7 +8657,7 @@
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="11"/>
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
@@ -8175,7 +8665,7 @@
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="11"/>
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
@@ -8183,7 +8673,7 @@
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="11"/>
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
@@ -8191,7 +8681,7 @@
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="11"/>
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
@@ -8199,7 +8689,7 @@
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="11"/>
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
@@ -8207,7 +8697,7 @@
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="11"/>
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
@@ -8215,7 +8705,7 @@
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="11"/>
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
@@ -8223,7 +8713,7 @@
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="11"/>
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
@@ -8231,7 +8721,7 @@
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="11"/>
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
@@ -8239,7 +8729,7 @@
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="11"/>
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
@@ -8247,7 +8737,7 @@
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="11"/>
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
@@ -8255,7 +8745,7 @@
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="11"/>
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
@@ -8263,7 +8753,7 @@
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="11"/>
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
@@ -8271,7 +8761,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="11"/>
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
@@ -8279,7 +8769,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="11"/>
       <c r="B300" s="11"/>
       <c r="C300" s="11"/>
@@ -8287,7 +8777,7 @@
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="11"/>
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
@@ -8295,7 +8785,7 @@
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="11"/>
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
@@ -8303,7 +8793,7 @@
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="11"/>
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
@@ -8311,7 +8801,7 @@
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
@@ -8319,7 +8809,7 @@
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="11"/>
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
@@ -8327,7 +8817,7 @@
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="11"/>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
@@ -8335,7 +8825,7 @@
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="11"/>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
@@ -8343,7 +8833,7 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="11"/>
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
@@ -8351,7 +8841,7 @@
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="11"/>
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
@@ -8359,7 +8849,7 @@
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="11"/>
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
@@ -8367,7 +8857,7 @@
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="11"/>
       <c r="B311" s="11"/>
       <c r="C311" s="11"/>
@@ -8375,7 +8865,7 @@
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="11"/>
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
@@ -8383,7 +8873,7 @@
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="11"/>
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
@@ -8391,7 +8881,7 @@
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="11"/>
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
@@ -8399,7 +8889,7 @@
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="11"/>
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
@@ -8407,7 +8897,7 @@
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="11"/>
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
@@ -8415,7 +8905,7 @@
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="11"/>
       <c r="B317" s="11"/>
       <c r="C317" s="11"/>
@@ -8423,7 +8913,7 @@
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="11"/>
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
@@ -8431,7 +8921,7 @@
       <c r="E318" s="11"/>
       <c r="F318" s="11"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="11"/>
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
@@ -8439,7 +8929,7 @@
       <c r="E319" s="11"/>
       <c r="F319" s="11"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="11"/>
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
@@ -8447,7 +8937,7 @@
       <c r="E320" s="11"/>
       <c r="F320" s="11"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="11"/>
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
@@ -8455,7 +8945,7 @@
       <c r="E321" s="11"/>
       <c r="F321" s="11"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="11"/>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
@@ -8463,7 +8953,7 @@
       <c r="E322" s="11"/>
       <c r="F322" s="11"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="11"/>
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
@@ -8471,7 +8961,7 @@
       <c r="E323" s="11"/>
       <c r="F323" s="11"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="11"/>
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
@@ -8479,7 +8969,7 @@
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="11"/>
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
@@ -8487,7 +8977,7 @@
       <c r="E325" s="11"/>
       <c r="F325" s="11"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="11"/>
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
@@ -8495,7 +8985,7 @@
       <c r="E326" s="11"/>
       <c r="F326" s="11"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="11"/>
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
@@ -8503,7 +8993,7 @@
       <c r="E327" s="11"/>
       <c r="F327" s="11"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="11"/>
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
@@ -8511,7 +9001,7 @@
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="11"/>
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
@@ -8519,7 +9009,7 @@
       <c r="E329" s="11"/>
       <c r="F329" s="11"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="11"/>
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
@@ -8527,7 +9017,7 @@
       <c r="E330" s="11"/>
       <c r="F330" s="11"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="11"/>
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
@@ -8535,7 +9025,7 @@
       <c r="E331" s="11"/>
       <c r="F331" s="11"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="11"/>
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
@@ -8543,7 +9033,7 @@
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="11"/>
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
@@ -8551,7 +9041,7 @@
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="11"/>
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
@@ -8559,7 +9049,7 @@
       <c r="E334" s="11"/>
       <c r="F334" s="11"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="11"/>
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
@@ -8567,7 +9057,7 @@
       <c r="E335" s="11"/>
       <c r="F335" s="11"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="11"/>
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
@@ -8575,7 +9065,7 @@
       <c r="E336" s="11"/>
       <c r="F336" s="11"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="11"/>
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
@@ -8583,7 +9073,7 @@
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="11"/>
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
@@ -8591,7 +9081,7 @@
       <c r="E338" s="11"/>
       <c r="F338" s="11"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="11"/>
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
@@ -8599,7 +9089,7 @@
       <c r="E339" s="11"/>
       <c r="F339" s="11"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="11"/>
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
@@ -8607,7 +9097,7 @@
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="11"/>
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
@@ -8615,7 +9105,7 @@
       <c r="E341" s="11"/>
       <c r="F341" s="11"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="11"/>
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
@@ -8623,7 +9113,7 @@
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="11"/>
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
@@ -8631,7 +9121,7 @@
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="11"/>
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
@@ -8639,7 +9129,7 @@
       <c r="E344" s="11"/>
       <c r="F344" s="11"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="11"/>
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
@@ -8647,7 +9137,7 @@
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="11"/>
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
@@ -8655,7 +9145,7 @@
       <c r="E346" s="11"/>
       <c r="F346" s="11"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="11"/>
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
@@ -8663,7 +9153,7 @@
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="11"/>
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
@@ -8671,7 +9161,7 @@
       <c r="E348" s="11"/>
       <c r="F348" s="11"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="11"/>
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
@@ -8679,7 +9169,7 @@
       <c r="E349" s="11"/>
       <c r="F349" s="11"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="11"/>
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
@@ -8687,7 +9177,7 @@
       <c r="E350" s="11"/>
       <c r="F350" s="11"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="11"/>
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
@@ -8695,7 +9185,7 @@
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="11"/>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
@@ -8703,7 +9193,7 @@
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="11"/>
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
@@ -8711,7 +9201,7 @@
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="11"/>
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
@@ -8719,7 +9209,7 @@
       <c r="E354" s="11"/>
       <c r="F354" s="11"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="11"/>
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
@@ -8727,7 +9217,7 @@
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="11"/>
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
@@ -8735,7 +9225,7 @@
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="11"/>
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
@@ -8743,7 +9233,7 @@
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="11"/>
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
@@ -8751,7 +9241,7 @@
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="11"/>
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
@@ -8759,7 +9249,7 @@
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="11"/>
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
@@ -8767,7 +9257,7 @@
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="11"/>
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
@@ -8775,7 +9265,7 @@
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="11"/>
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
@@ -8783,7 +9273,7 @@
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="11"/>
       <c r="B363" s="11"/>
       <c r="C363" s="11"/>
@@ -8791,7 +9281,7 @@
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="11"/>
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
@@ -8799,7 +9289,7 @@
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="11"/>
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
@@ -8807,7 +9297,7 @@
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="11"/>
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
@@ -8815,7 +9305,7 @@
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="11"/>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
@@ -8823,7 +9313,7 @@
       <c r="E367" s="11"/>
       <c r="F367" s="11"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="11"/>
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
@@ -8831,7 +9321,7 @@
       <c r="E368" s="11"/>
       <c r="F368" s="11"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="11"/>
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
@@ -8839,7 +9329,7 @@
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="11"/>
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
@@ -8847,7 +9337,7 @@
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="11"/>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
@@ -8855,7 +9345,7 @@
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="11"/>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
@@ -8863,7 +9353,7 @@
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="11"/>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
@@ -8871,7 +9361,7 @@
       <c r="E373" s="11"/>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="11"/>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
@@ -8879,7 +9369,7 @@
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="11"/>
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
@@ -8887,7 +9377,7 @@
       <c r="E375" s="11"/>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="11"/>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
@@ -8895,7 +9385,7 @@
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="11"/>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
@@ -8903,7 +9393,7 @@
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="11"/>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
@@ -8911,7 +9401,7 @@
       <c r="E378" s="11"/>
       <c r="F378" s="11"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="11"/>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
@@ -8919,7 +9409,7 @@
       <c r="E379" s="11"/>
       <c r="F379" s="11"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="11"/>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
@@ -8927,7 +9417,7 @@
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="11"/>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
@@ -8935,7 +9425,7 @@
       <c r="E381" s="11"/>
       <c r="F381" s="11"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="11"/>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
@@ -8943,7 +9433,7 @@
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="11"/>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
@@ -8951,7 +9441,7 @@
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="11"/>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
@@ -8959,7 +9449,7 @@
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="11"/>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
@@ -8967,7 +9457,7 @@
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="11"/>
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
@@ -8975,7 +9465,7 @@
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="11"/>
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
@@ -8983,7 +9473,7 @@
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="11"/>
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
@@ -8991,7 +9481,7 @@
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="11"/>
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
@@ -8999,7 +9489,7 @@
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="11"/>
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
@@ -9007,7 +9497,7 @@
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="11"/>
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
@@ -9015,7 +9505,7 @@
       <c r="E391" s="11"/>
       <c r="F391" s="11"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="11"/>
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
@@ -9023,7 +9513,7 @@
       <c r="E392" s="11"/>
       <c r="F392" s="11"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="11"/>
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
@@ -9031,7 +9521,7 @@
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="11"/>
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
@@ -9039,7 +9529,7 @@
       <c r="E394" s="11"/>
       <c r="F394" s="11"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="11"/>
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
@@ -9047,7 +9537,7 @@
       <c r="E395" s="11"/>
       <c r="F395" s="11"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="11"/>
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
@@ -9055,7 +9545,7 @@
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="11"/>
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
@@ -9063,7 +9553,7 @@
       <c r="E397" s="11"/>
       <c r="F397" s="11"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="11"/>
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
@@ -9071,7 +9561,7 @@
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="11"/>
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
@@ -9079,7 +9569,7 @@
       <c r="E399" s="11"/>
       <c r="F399" s="11"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="11"/>
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
@@ -9087,7 +9577,7 @@
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="11"/>
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
@@ -9095,7 +9585,7 @@
       <c r="E401" s="11"/>
       <c r="F401" s="11"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="11"/>
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
@@ -9103,7 +9593,7 @@
       <c r="E402" s="11"/>
       <c r="F402" s="11"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="11"/>
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
@@ -9111,7 +9601,7 @@
       <c r="E403" s="11"/>
       <c r="F403" s="11"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="11"/>
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
@@ -9123,4 +9613,1590 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E755B8E-3121-4EA9-85C5-C828D312CDD1}">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.26171875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="11"/>
+    <col min="3" max="3" width="19.26171875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.83984375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.26171875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="18.15625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="21.83984375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="13.26171875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.26171875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.83984375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="21" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="A1" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20">
+        <v>4</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="86.7" x14ac:dyDescent="0.6">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="86.7" x14ac:dyDescent="0.6">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>7</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="86.7" x14ac:dyDescent="0.6">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20">
+        <v>8</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="86.7" x14ac:dyDescent="0.6">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20">
+        <v>8</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20">
+        <v>8</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20">
+        <v>8</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20">
+        <v>8</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20">
+        <v>8</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="86.7" x14ac:dyDescent="0.6">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20">
+        <v>8</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="72.3" x14ac:dyDescent="0.6">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20">
+        <v>8</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="109.2" x14ac:dyDescent="0.6">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20">
+        <v>22</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="109.2" x14ac:dyDescent="0.6">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20">
+        <v>23</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="109.2" x14ac:dyDescent="0.6">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="140.4" x14ac:dyDescent="0.6">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>32</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="140.4" x14ac:dyDescent="0.6">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>33</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="140.4" x14ac:dyDescent="0.6">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17">
+        <v>34</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="140.4" x14ac:dyDescent="0.6">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17">
+        <v>36</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="202.8" x14ac:dyDescent="0.6">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17">
+        <v>51</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="78" x14ac:dyDescent="0.6">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17">
+        <v>56</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="109.2" x14ac:dyDescent="0.6">
+      <c r="A30" s="11">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11">
+        <v>4</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="109.2" x14ac:dyDescent="0.6">
+      <c r="A31" s="11">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11">
+        <v>5</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="124.8" x14ac:dyDescent="0.6">
+      <c r="A32" s="11">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11">
+        <v>10</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="140.4" x14ac:dyDescent="0.6">
+      <c r="A33" s="11">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11">
+        <v>13</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="140.4" x14ac:dyDescent="0.6">
+      <c r="A34" s="11">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11">
+        <v>22</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="140.4" x14ac:dyDescent="0.6">
+      <c r="A35" s="11">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11">
+        <v>25</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="140.4" x14ac:dyDescent="0.6">
+      <c r="A36" s="11">
+        <v>7</v>
+      </c>
+      <c r="B36" s="11">
+        <v>29</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="140.4" x14ac:dyDescent="0.6">
+      <c r="A37" s="11">
+        <v>8</v>
+      </c>
+      <c r="B37" s="11">
+        <v>30</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{3C5ACF30-B07E-4138-9E32-B9A4136A8467}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{C0753B8F-672C-4A21-B644-0558BCC7AF9C}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{4900FDED-0A06-43C2-ADBB-3D59725F820B}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{1AA1AF35-0AA8-47C2-91FD-FC11210B9E30}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{C7E872DC-464C-4F05-B310-FDF86A3639C3}"/>
+    <hyperlink ref="L21" r:id="rId6" xr:uid="{927D5A3A-532A-41ED-BB38-1855F748A030}"/>
+    <hyperlink ref="L22" r:id="rId7" xr:uid="{C0C9F8E6-BE27-4954-A2BD-446F96C1DBFA}"/>
+    <hyperlink ref="L23" r:id="rId8" xr:uid="{EE11BEA5-E3D8-4AF8-AE98-D8A52BD78E7B}"/>
+    <hyperlink ref="L24" r:id="rId9" xr:uid="{03757BD3-E7C5-46E3-A8F0-A7EC520FA8F6}"/>
+    <hyperlink ref="L25" r:id="rId10" xr:uid="{E10BBF48-0604-4FEC-BBEF-89B401BD4C80}"/>
+    <hyperlink ref="L27" r:id="rId11" xr:uid="{02612464-8BD3-4D3E-80C3-3EAA8510D52B}"/>
+    <hyperlink ref="L28" r:id="rId12" xr:uid="{CF003092-22CE-4CB6-A0C0-EA14DAF6334B}"/>
+    <hyperlink ref="L29" r:id="rId13" xr:uid="{657E1368-041F-4059-83C3-563EBF21E8B5}"/>
+    <hyperlink ref="L31" r:id="rId14" xr:uid="{1A1B1551-9091-433C-AA67-956D4BF854B3}"/>
+    <hyperlink ref="L32" r:id="rId15" xr:uid="{9DF1BC41-FDCE-46DB-80A2-B4DAAE9E37D3}"/>
+    <hyperlink ref="L33" r:id="rId16" xr:uid="{56CA03BC-B1CF-47D2-B17B-44560AB51185}"/>
+    <hyperlink ref="L34" r:id="rId17" xr:uid="{4E01AFD5-D627-4963-A2B8-46864AF7443E}"/>
+    <hyperlink ref="L35" r:id="rId18" xr:uid="{8DC13EC6-ED4E-4358-86ED-C0C310DE9EC6}"/>
+    <hyperlink ref="L36" r:id="rId19" xr:uid="{EBA75E41-D30E-4AC7-814C-64FE8CC72E64}"/>
+    <hyperlink ref="L37" r:id="rId20" xr:uid="{FFDC4CA5-8E74-4C8E-A4B4-C4B64ED75596}"/>
+    <hyperlink ref="L7" r:id="rId21" xr:uid="{FE499641-9D3E-48C0-BFC5-58B0AC7E68C3}"/>
+    <hyperlink ref="L8" r:id="rId22" xr:uid="{0C6AFD74-4057-4897-B099-8A58FFB48187}"/>
+    <hyperlink ref="L14" r:id="rId23" xr:uid="{2FEE09C1-7E45-4BB4-8B58-9654BD8E9FB6}"/>
+    <hyperlink ref="L19" r:id="rId24" xr:uid="{8B187A70-E58D-4259-A6E0-F1362F7BF3BF}"/>
+    <hyperlink ref="L9" r:id="rId25" xr:uid="{C7CA665F-599C-47EC-896D-7E8FCA05BF20}"/>
+    <hyperlink ref="L10" r:id="rId26" xr:uid="{79BCA0ED-1A9B-457B-B25E-50BB672F14CC}"/>
+    <hyperlink ref="L11" r:id="rId27" xr:uid="{29D239A4-2580-4330-834E-8D11E8CA0C89}"/>
+    <hyperlink ref="L16" r:id="rId28" xr:uid="{F10CC5FF-EFF1-4448-9225-FAF95019D7A0}"/>
+    <hyperlink ref="L12" r:id="rId29" xr:uid="{C12D5D4F-FBF7-468C-97BF-85FAC999BCE8}"/>
+    <hyperlink ref="L13" r:id="rId30" xr:uid="{ECCF0A8A-2CAB-48CF-862C-88AF0952F7E5}"/>
+    <hyperlink ref="L15" r:id="rId31" xr:uid="{DDB7EBAE-423B-49AD-A540-A1D61A63AC0A}"/>
+    <hyperlink ref="L17" r:id="rId32" xr:uid="{E9C3EE23-985E-4C51-B908-B8A460B17889}"/>
+    <hyperlink ref="L18" r:id="rId33" xr:uid="{9D2475D3-AC74-416E-B848-4D75C8011146}"/>
+    <hyperlink ref="L20" r:id="rId34" xr:uid="{2BA6A080-DD3C-40FE-B354-A34F4C10384C}"/>
+    <hyperlink ref="L26" r:id="rId35" xr:uid="{D21DE0EC-F993-4EB4-8DA6-E7E1B90E1085}"/>
+    <hyperlink ref="L30" r:id="rId36" xr:uid="{8D101EE8-87FA-44C0-A03E-D984A58A7C56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
+</worksheet>
 </file>